--- a/AI - Assignment 1/data p1=0.7_N=8_D=8.xlsx
+++ b/AI - Assignment 1/data p1=0.7_N=8_D=8.xlsx
@@ -452,89 +452,89 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1885.6</v>
+        <v>1689.6</v>
       </c>
       <c r="B2" t="n">
-        <v>2765.6</v>
+        <v>3091.2</v>
       </c>
       <c r="C2" t="n">
-        <v>3433.6</v>
+        <v>3640</v>
       </c>
       <c r="D2" t="n">
-        <v>7511.2</v>
+        <v>7236.8</v>
       </c>
       <c r="E2" t="n">
-        <v>29965.6</v>
+        <v>15670.4</v>
       </c>
       <c r="F2" t="n">
-        <v>48539.2</v>
+        <v>79318.39999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>146745.6</v>
+        <v>142064</v>
       </c>
       <c r="H2" t="n">
-        <v>454044.8</v>
+        <v>510992</v>
       </c>
       <c r="I2" t="n">
-        <v>1283976</v>
+        <v>646470.3999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1376.4</v>
+        <v>5063.199999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1450</v>
+        <v>5774.2</v>
       </c>
       <c r="C3" t="n">
-        <v>1741.2</v>
+        <v>5789.400000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>1799.4</v>
+        <v>6226.299999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>1766.8</v>
+        <v>9288.9</v>
       </c>
       <c r="F3" t="n">
-        <v>2090</v>
+        <v>27564.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2231.2</v>
+        <v>47143.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1974.3</v>
+        <v>165634.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2850.9</v>
+        <v>193398.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1185</v>
+        <v>1026.4</v>
       </c>
       <c r="B4" t="n">
-        <v>1825.9</v>
+        <v>1474.3</v>
       </c>
       <c r="C4" t="n">
-        <v>1496.6</v>
+        <v>1314.8</v>
       </c>
       <c r="D4" t="n">
-        <v>3890.3</v>
+        <v>5343.2</v>
       </c>
       <c r="E4" t="n">
-        <v>17374.3</v>
+        <v>7825.599999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>37713.8</v>
+        <v>24327.4</v>
       </c>
       <c r="G4" t="n">
-        <v>70200.7</v>
+        <v>75665.40000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>89815.39999999999</v>
+        <v>182005.3</v>
       </c>
       <c r="I4" t="n">
-        <v>451317.4</v>
+        <v>483050.3</v>
       </c>
     </row>
   </sheetData>
